--- a/excel_with_subclasses/without_zeros/port_with_count_without_zeros.xlsx
+++ b/excel_with_subclasses/without_zeros/port_with_count_without_zeros.xlsx
@@ -25,7 +25,7 @@
     <t>class</t>
   </si>
   <si>
-    <t>count_P31</t>
+    <t>signifance</t>
   </si>
   <si>
     <t>Q10952797</t>
@@ -683,9 +683,6 @@
       <c r="C2" t="s">
         <v>84</v>
       </c>
-      <c r="D2">
-        <v>451</v>
-      </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
@@ -697,9 +694,6 @@
       <c r="C3" t="s">
         <v>84</v>
       </c>
-      <c r="D3">
-        <v>302</v>
-      </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
@@ -711,9 +705,6 @@
       <c r="C4" t="s">
         <v>84</v>
       </c>
-      <c r="D4">
-        <v>281</v>
-      </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
@@ -725,9 +716,6 @@
       <c r="C5" t="s">
         <v>84</v>
       </c>
-      <c r="D5">
-        <v>160</v>
-      </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
@@ -739,9 +727,6 @@
       <c r="C6" t="s">
         <v>84</v>
       </c>
-      <c r="D6">
-        <v>160</v>
-      </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
@@ -753,9 +738,6 @@
       <c r="C7" t="s">
         <v>84</v>
       </c>
-      <c r="D7">
-        <v>86</v>
-      </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
@@ -767,9 +749,6 @@
       <c r="C8" t="s">
         <v>84</v>
       </c>
-      <c r="D8">
-        <v>44</v>
-      </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
@@ -781,9 +760,6 @@
       <c r="C9" t="s">
         <v>85</v>
       </c>
-      <c r="D9">
-        <v>29</v>
-      </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
@@ -795,9 +771,6 @@
       <c r="C10" t="s">
         <v>85</v>
       </c>
-      <c r="D10">
-        <v>29</v>
-      </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
@@ -809,9 +782,6 @@
       <c r="C11" t="s">
         <v>85</v>
       </c>
-      <c r="D11">
-        <v>27</v>
-      </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
@@ -823,9 +793,6 @@
       <c r="C12" t="s">
         <v>86</v>
       </c>
-      <c r="D12">
-        <v>22</v>
-      </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
@@ -837,9 +804,6 @@
       <c r="C13" t="s">
         <v>84</v>
       </c>
-      <c r="D13">
-        <v>22</v>
-      </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
@@ -851,9 +815,6 @@
       <c r="C14" t="s">
         <v>84</v>
       </c>
-      <c r="D14">
-        <v>18</v>
-      </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
@@ -865,9 +826,6 @@
       <c r="C15" t="s">
         <v>85</v>
       </c>
-      <c r="D15">
-        <v>16</v>
-      </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
@@ -879,11 +837,8 @@
       <c r="C16" t="s">
         <v>84</v>
       </c>
-      <c r="D16">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -893,11 +848,8 @@
       <c r="C17" t="s">
         <v>84</v>
       </c>
-      <c r="D17">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -907,11 +859,8 @@
       <c r="C18" t="s">
         <v>87</v>
       </c>
-      <c r="D18">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -921,11 +870,8 @@
       <c r="C19" t="s">
         <v>84</v>
       </c>
-      <c r="D19">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>22</v>
       </c>
@@ -935,11 +881,8 @@
       <c r="C20" t="s">
         <v>88</v>
       </c>
-      <c r="D20">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -949,11 +892,8 @@
       <c r="C21" t="s">
         <v>89</v>
       </c>
-      <c r="D21">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>24</v>
       </c>
@@ -963,11 +903,8 @@
       <c r="C22" t="s">
         <v>84</v>
       </c>
-      <c r="D22">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>25</v>
       </c>
@@ -977,11 +914,8 @@
       <c r="C23" t="s">
         <v>90</v>
       </c>
-      <c r="D23">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
         <v>26</v>
       </c>
@@ -991,11 +925,8 @@
       <c r="C24" t="s">
         <v>85</v>
       </c>
-      <c r="D24">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
         <v>27</v>
       </c>
@@ -1005,11 +936,8 @@
       <c r="C25" t="s">
         <v>84</v>
       </c>
-      <c r="D25">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
         <v>28</v>
       </c>
@@ -1019,11 +947,8 @@
       <c r="C26" t="s">
         <v>91</v>
       </c>
-      <c r="D26">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
         <v>29</v>
       </c>
@@ -1033,11 +958,8 @@
       <c r="C27" t="s">
         <v>84</v>
       </c>
-      <c r="D27">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
         <v>30</v>
       </c>
@@ -1047,11 +969,8 @@
       <c r="C28" t="s">
         <v>84</v>
       </c>
-      <c r="D28">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+    </row>
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
         <v>31</v>
       </c>
@@ -1061,11 +980,8 @@
       <c r="C29" t="s">
         <v>84</v>
       </c>
-      <c r="D29">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+    </row>
+    <row r="30" spans="1:3">
       <c r="A30" t="s">
         <v>32</v>
       </c>
@@ -1075,11 +991,8 @@
       <c r="C30" t="s">
         <v>84</v>
       </c>
-      <c r="D30">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+    </row>
+    <row r="31" spans="1:3">
       <c r="A31" t="s">
         <v>33</v>
       </c>
@@ -1089,11 +1002,8 @@
       <c r="C31" t="s">
         <v>84</v>
       </c>
-      <c r="D31">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+    </row>
+    <row r="32" spans="1:3">
       <c r="A32" t="s">
         <v>34</v>
       </c>
@@ -1103,11 +1013,8 @@
       <c r="C32" t="s">
         <v>84</v>
       </c>
-      <c r="D32">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+    </row>
+    <row r="33" spans="1:3">
       <c r="A33" t="s">
         <v>35</v>
       </c>
@@ -1117,11 +1024,8 @@
       <c r="C33" t="s">
         <v>92</v>
       </c>
-      <c r="D33">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+    </row>
+    <row r="34" spans="1:3">
       <c r="A34" t="s">
         <v>36</v>
       </c>
@@ -1131,11 +1035,8 @@
       <c r="C34" t="s">
         <v>84</v>
       </c>
-      <c r="D34">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+    </row>
+    <row r="35" spans="1:3">
       <c r="A35" t="s">
         <v>37</v>
       </c>
@@ -1145,11 +1046,8 @@
       <c r="C35" t="s">
         <v>84</v>
       </c>
-      <c r="D35">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+    </row>
+    <row r="36" spans="1:3">
       <c r="A36" t="s">
         <v>38</v>
       </c>
@@ -1159,11 +1057,8 @@
       <c r="C36" t="s">
         <v>93</v>
       </c>
-      <c r="D36">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+    </row>
+    <row r="37" spans="1:3">
       <c r="A37" t="s">
         <v>39</v>
       </c>
@@ -1173,11 +1068,8 @@
       <c r="C37" t="s">
         <v>84</v>
       </c>
-      <c r="D37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+    </row>
+    <row r="38" spans="1:3">
       <c r="A38" t="s">
         <v>40</v>
       </c>
@@ -1187,11 +1079,8 @@
       <c r="C38" t="s">
         <v>84</v>
       </c>
-      <c r="D38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+    </row>
+    <row r="39" spans="1:3">
       <c r="A39" t="s">
         <v>41</v>
       </c>
@@ -1201,11 +1090,8 @@
       <c r="C39" t="s">
         <v>84</v>
       </c>
-      <c r="D39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+    </row>
+    <row r="40" spans="1:3">
       <c r="A40" t="s">
         <v>42</v>
       </c>
@@ -1215,11 +1101,8 @@
       <c r="C40" t="s">
         <v>85</v>
       </c>
-      <c r="D40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+    </row>
+    <row r="41" spans="1:3">
       <c r="A41" t="s">
         <v>43</v>
       </c>
@@ -1228,9 +1111,6 @@
       </c>
       <c r="C41" t="s">
         <v>84</v>
-      </c>
-      <c r="D41">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
